--- a/student_data_dictionary.xlsx
+++ b/student_data_dictionary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Downloads\predict+students+dropout+and+academic+success\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cris/Documents/GitHub/DPDA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47C9C76C-4DCD-4A87-95DC-268C4A85EBC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2872C68-0AFD-7F4E-B23B-664407B30454}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33870" yWindow="2445" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -311,7 +311,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -320,11 +320,61 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -335,6 +385,21 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{087FC975-F592-9443-AEA5-E8B0ED5E109B}" name="Table1" displayName="Table1" ref="A1:F38" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+  <autoFilter ref="A1:F38" xr:uid="{087FC975-F592-9443-AEA5-E8B0ED5E109B}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{8571D584-C344-1840-92DF-15403A304B51}" name="Variable Name" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{D5BF33CB-B1E5-624D-B6C2-7A2F23AE585C}" name="Role" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{B50012CA-857C-5945-B672-00A47CEE4F84}" name="Type" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{EF57E1AC-F1B1-0B4E-ADF2-CCA51965BAD1}" name="Demographic" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{63D1CB1A-3F96-7049-B240-50B43DCDB033}" name="Description" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{3BB9F541-CE26-AC48-8CC3-02771638D075}" name="Units"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -603,28 +668,30 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
-    <col min="4" max="4" width="31" customWidth="1"/>
-    <col min="5" max="5" width="34.28515625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14" customWidth="1"/>
+    <col min="1" max="1" width="37" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="139.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -634,545 +701,545 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="B2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="300" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="225" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="300" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="B7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="B8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>22</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="165" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="9" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="B9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>25</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="10" spans="1:6" ht="112" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="B10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="11" spans="1:6" ht="128" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="B11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="12" spans="1:6" ht="160" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="B12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>32</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="13" spans="1:6" ht="224" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="B13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>32</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="B14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>22</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="15" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="B15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="16" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="B16" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="17" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="B17" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="18" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="B18" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="19" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B19" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="B19" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>43</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="20" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="B20" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="21" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B21" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="B21" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="5" t="s">
         <v>47</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="22" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B22" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="B22" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="23" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B23" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="B23" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="24" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B24" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="B24" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="25" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B25" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="B25" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="26" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A26" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="B26" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="27" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A27" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="B27" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="B27" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="28" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A28" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B28" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="B28" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="29" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A29" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="B29" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="B29" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    <row r="30" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A30" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B30" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="B30" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="31" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A31" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B31" t="s">
-        <v>7</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="B31" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+    <row r="32" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A32" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B32" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" t="s">
+      <c r="B32" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    <row r="33" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A33" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="B33" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="B33" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+    <row r="34" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A34" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B34" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" t="s">
+      <c r="B34" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+    <row r="35" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A35" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="B35" t="s">
-        <v>7</v>
-      </c>
-      <c r="C35" t="s">
+      <c r="B35" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="5" t="s">
         <v>22</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+    <row r="36" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A36" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="B36" t="s">
-        <v>7</v>
-      </c>
-      <c r="C36" t="s">
+      <c r="B36" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="5" t="s">
         <v>22</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row r="37" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A37" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B37" t="s">
-        <v>7</v>
-      </c>
-      <c r="C37" t="s">
+      <c r="B37" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="5" t="s">
         <v>22</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+    <row r="38" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A38" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="5" t="s">
         <v>79</v>
       </c>
       <c r="E38" s="3" t="s">
@@ -1181,5 +1248,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>